--- a/Planned_Air_Import_Shipment_Tracking.xlsx
+++ b/Planned_Air_Import_Shipment_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Videos\Documents\FireAI\Isa Logistics\Excel to Data Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8BF4A8-A9A6-4242-A29B-B72A98069A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57970CE-E8BF-4E96-A9F2-B4E48A445278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,12 +604,6 @@
     <t>Planned_Pick_up_Date_at_Origin</t>
   </si>
   <si>
-    <t>Planned_HBL_MBL_Draft</t>
-  </si>
-  <si>
-    <t>Planned_Bill_of_Entry_Checklist</t>
-  </si>
-  <si>
     <t>Planned_Completed_CHA</t>
   </si>
   <si>
@@ -638,6 +632,12 @@
   </si>
   <si>
     <t>Quotation_Remarks</t>
+  </si>
+  <si>
+    <t>Planned_HBL_and_MBL_Draft</t>
+  </si>
+  <si>
+    <t>Planned_Bill_of_Entry_Check_list</t>
   </si>
 </sst>
 </file>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,8 +1141,8 @@
     <col min="5" max="5" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.42578125" style="11" bestFit="1" customWidth="1"/>
@@ -1178,40 +1178,40 @@
         <v>193</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
